--- a/data/processed/unmatched_columns/unmatched_岳阳现代服务职业学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_岳阳现代服务职业学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>学费             （元/年）</t>
+          <t>学制(年)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>学制(年)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>_源文件</t>
         </is>
@@ -470,12 +465,9 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15800</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -491,12 +483,9 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13800</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -512,12 +501,9 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -533,12 +519,9 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15800</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -554,12 +537,9 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -575,12 +555,9 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -596,12 +573,9 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -617,12 +591,9 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -638,12 +609,9 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -659,12 +627,9 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14900</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -680,12 +645,9 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16800</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -701,12 +663,9 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13800</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -722,12 +681,9 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13800</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -743,12 +699,9 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -764,12 +717,9 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -785,12 +735,9 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16800</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -806,12 +753,9 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -827,12 +771,9 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -848,12 +789,9 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -869,12 +807,9 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -890,12 +825,9 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -911,12 +843,9 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14800</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -932,12 +861,9 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13200</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -953,12 +879,9 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13200</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
@@ -974,12 +897,9 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13800</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>岳阳现代服务职业学院.xlsx</t>
         </is>
